--- a/Lab1/Lab1_3/RequirementsStakeholderTraceabilityMatrix.xlsx
+++ b/Lab1/Lab1_3/RequirementsStakeholderTraceabilityMatrix.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HK1_2023-2024\SE357_BA\SE357-Pratice-class\Lab1\Lab1_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_97B204BF7B2CE106B2B42CACFE45BEA1D22BDF7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,65 +30,65 @@
     <t>Requirement ID</t>
   </si>
   <si>
+    <t>Requirement Description</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Admin (Shop Manager)</t>
+  </si>
+  <si>
     <t>REQ-001</t>
   </si>
   <si>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>REQ-002</t>
   </si>
   <si>
+    <t>Product Catalog</t>
+  </si>
+  <si>
     <t xml:space="preserve">REQ-003 </t>
   </si>
   <si>
+    <t>Product Search</t>
+  </si>
+  <si>
     <t>REQ-004</t>
   </si>
   <si>
+    <t>Shopping Cart</t>
+  </si>
+  <si>
     <t>REQ-005</t>
   </si>
   <si>
+    <t>Order Management</t>
+  </si>
+  <si>
     <t>REQ-006</t>
   </si>
   <si>
+    <t>Payment Processing</t>
+  </si>
+  <si>
     <t>REQ-007</t>
   </si>
   <si>
-    <t>Requirement Description</t>
-  </si>
-  <si>
-    <t>User Registration</t>
-  </si>
-  <si>
-    <t>Product Catalog</t>
-  </si>
-  <si>
-    <t>Product Search</t>
-  </si>
-  <si>
-    <t>Shopping Cart</t>
-  </si>
-  <si>
-    <t>Order Management</t>
-  </si>
-  <si>
-    <t>Payment Processing</t>
-  </si>
-  <si>
     <t>User Reviews and Ratings</t>
-  </si>
-  <si>
-    <t>Customers</t>
-  </si>
-  <si>
-    <t>Admin (Shop Manager)</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +161,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,116 +438,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32.450000000000003" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="34.15" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.450000000000003" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.15" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="27.6" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30.6" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33.6" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1"/>
     </row>
